--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7970B2D3-3E53-409E-9E58-C91142E644C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78868A-56A9-4032-BFB7-4E64912A8939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Satelites" sheetId="3" r:id="rId2"/>
+    <sheet name="E_Dinamica" sheetId="4" r:id="rId3"/>
+    <sheet name="Concentrado" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
   <si>
     <t>Alumno</t>
   </si>
@@ -124,13 +126,61 @@
   </si>
   <si>
     <t>Ej_Clase_9_Enero</t>
+  </si>
+  <si>
+    <t>Presentación</t>
+  </si>
+  <si>
+    <t>Respuestas</t>
+  </si>
+  <si>
+    <t>Bibliografía</t>
+  </si>
+  <si>
+    <t>Ortografía</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t>E_1_2</t>
+  </si>
+  <si>
+    <t>E_1_3</t>
+  </si>
+  <si>
+    <t>E_1_1</t>
+  </si>
+  <si>
+    <t>E_1_4</t>
+  </si>
+  <si>
+    <t>E_2_1</t>
+  </si>
+  <si>
+    <t>E_2_2</t>
+  </si>
+  <si>
+    <t>E_2_3</t>
+  </si>
+  <si>
+    <t>E_2_4</t>
+  </si>
+  <si>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t>E_Dinámica</t>
+  </si>
+  <si>
+    <t>Act_26_Enero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +193,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +242,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -514,19 +581,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03221FD9-1A43-4B19-A628-FA25B3241E5E}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -554,28 +622,40 @@
       <c r="I1" s="5">
         <v>45317</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5">
+        <v>45324</v>
+      </c>
+      <c r="K1" s="5">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -583,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -593,8 +673,14 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -604,8 +690,14 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -615,23 +707,26 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -641,16 +736,22 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -660,16 +761,28 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -677,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -687,8 +800,17 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -696,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -706,8 +828,14 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -717,23 +845,32 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -743,8 +880,23 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -752,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -760,6 +912,15 @@
         <v>1</v>
       </c>
       <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -770,11 +931,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093DC0FE-1BFD-454F-AD9A-1EA417191501}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUM(B2:E2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F27" si="0">SUM(B3:E3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <f>SUM(B27:E27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F114932C-396E-4FAA-9E3F-6F0B8DC8D74B}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(B2:I2)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J27" si="0">SUM(B3:I3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EAD3E5-5B7A-4705-8DDF-7E1216A30333}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,226 +2443,592 @@
     <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1">
+        <f>SUM(B1:E1)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>SUM(B3:E3)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H28" si="0">SUM(B4:E4)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="B6" s="1">
+        <v>4</v>
       </c>
       <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="B13" s="1">
+        <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>15.200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="B17" s="1">
+        <v>5</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="B20" s="1">
+        <v>5</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="B27" s="1">
+        <v>0</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B78868A-56A9-4032-BFB7-4E64912A8939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AB8D8-097F-4FB1-A3FC-19D207F343C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="5" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
     <sheet name="Satelites" sheetId="3" r:id="rId2"/>
     <sheet name="E_Dinamica" sheetId="4" r:id="rId3"/>
-    <sheet name="Concentrado" sheetId="2" r:id="rId4"/>
+    <sheet name="Plantas" sheetId="6" r:id="rId4"/>
+    <sheet name="Examen" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrado" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Concentrado!$A$1:$M$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="85">
   <si>
     <t>Alumno</t>
   </si>
@@ -174,13 +179,137 @@
   </si>
   <si>
     <t>Act_26_Enero</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Examen</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Aprobados</t>
+  </si>
+  <si>
+    <t>No aprobados</t>
+  </si>
+  <si>
+    <t>Ajuste</t>
+  </si>
+  <si>
+    <t>Faltan 2 exámenes</t>
+  </si>
+  <si>
+    <t>Eval_Continua</t>
+  </si>
+  <si>
+    <t>Act_16_Febrero</t>
+  </si>
+  <si>
+    <t>Plantas_Generadoras</t>
+  </si>
+  <si>
+    <t>Teoría</t>
+  </si>
+  <si>
+    <t>Tipos</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Faltas</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,13 +337,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -226,10 +375,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,20 +389,48 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -581,60 +760,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03221FD9-1A43-4B19-A628-FA25B3241E5E}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <v>45293</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>45296</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>45300</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="4">
         <v>45303</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="4">
         <v>45307</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>45310</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>45314</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="4">
         <v>45317</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="4">
+        <v>45321</v>
+      </c>
+      <c r="K1" s="4">
         <v>45324</v>
       </c>
-      <c r="K1" s="5">
+      <c r="L1" s="4">
         <v>45328</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="4">
+        <v>45331</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45335</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45338</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45342</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45345</v>
+      </c>
+      <c r="R1" s="4">
+        <v>45349</v>
+      </c>
+      <c r="S1" s="4">
+        <v>45352</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45356</v>
+      </c>
+      <c r="U1" s="4">
+        <v>45359</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="6"/>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <f>SUM(B2:U2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,26 +871,52 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="6"/>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V26" si="0">SUM(B3:U3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="6"/>
+      <c r="V4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="6"/>
+      <c r="V5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="6"/>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -676,11 +929,16 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="V7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -696,8 +954,28 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,26 +985,61 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+      <c r="V11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -736,22 +1049,38 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -770,27 +1099,45 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" s="6"/>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6"/>
+      <c r="V16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" s="6"/>
+      <c r="V17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -809,16 +1156,38 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" s="6"/>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" s="6"/>
+      <c r="V19" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -831,11 +1200,19 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -845,83 +1222,93 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" s="6"/>
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="V23" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" s="6"/>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" s="6"/>
+      <c r="V25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1523,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F114932C-396E-4FAA-9E3F-6F0B8DC8D74B}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,7 +1922,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2426,16 +2813,2833 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D964DE88-A12A-43EE-9275-0B22291B8A08}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>SUM(B2:G2)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H26" si="0">SUM(B3:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BDBC46-5058-41B0-8978-5BEBA3687F77}">
+  <dimension ref="A1:AD26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="23" width="6" customWidth="1"/>
+    <col min="24" max="26" width="11.42578125" style="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" customWidth="1"/>
+    <col min="30" max="30" width="5.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <f>SUM(D2:W2)</f>
+        <v>17</v>
+      </c>
+      <c r="Y2" s="7">
+        <f t="shared" ref="Y2:Y26" si="0">(X2/20)*10</f>
+        <v>8.5</v>
+      </c>
+      <c r="Z2" s="7">
+        <f>IF(Y2=10,Y2,Y2+0.55)</f>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>10-AC1</f>
+        <v>0.55000000000000071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X26" si="1">SUM(D3:W3)</f>
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Z3" s="7">
+        <f t="shared" ref="Z3:Z26" si="2">IF(Y3=10,Y3,Y3+0.55)</f>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="8">
+        <f>COUNTIF(Z2:Z26,"&gt;=6")</f>
+        <v>16</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>AC4/23</f>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="1">
+        <f>COUNTIF(Z2:Z26,"&lt;6")</f>
+        <v>7</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>AC5/23</f>
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AD6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="2"/>
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="2"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="1"/>
+        <v>12.08</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.04</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="2"/>
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="1"/>
+        <v>16.66</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="0"/>
+        <v>8.33</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="2"/>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="2"/>
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="2"/>
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="0"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="0"/>
+        <v>6.125</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="2"/>
+        <v>6.6749999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="2"/>
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="Z19" s="7">
+        <f t="shared" si="2"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Z20" s="7">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="Z21" s="7">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+      <c r="Z22" s="7">
+        <f t="shared" si="2"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" si="0"/>
+        <v>7.25</v>
+      </c>
+      <c r="Z23" s="7">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" si="2"/>
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="0"/>
+        <v>7.625</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="2"/>
+        <v>8.1750000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="1"/>
+        <v>10.66</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="0"/>
+        <v>5.33</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="2"/>
+        <v>5.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EAD3E5-5B7A-4705-8DDF-7E1216A30333}">
-  <dimension ref="A1:H28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5370" ySplit="1080" topLeftCell="I28" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,10 +5648,18 @@
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>5</v>
       </c>
@@ -2460,13 +5672,31 @@
       <c r="E1" s="1">
         <v>8</v>
       </c>
+      <c r="F1" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
       <c r="H1" s="1">
-        <f>SUM(B1:E1)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <f>SUM(B1:H1)</f>
+        <v>34</v>
+      </c>
+      <c r="J1" s="1">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2481,11 +5711,32 @@
       <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2501,12 +5752,46 @@
       <c r="E3" s="1">
         <v>4.5</v>
       </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
       <c r="H3" s="1">
-        <f>SUM(B3:E3)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <f>SUM(B3:H3)</f>
+        <v>29.5</v>
+      </c>
+      <c r="J3" s="7">
+        <f>(I3/$I$1)*10</f>
+        <v>8.6764705882352935</v>
+      </c>
+      <c r="K3" s="7">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L3" s="7">
+        <f>J3*0.4+K3*0.6</f>
+        <v>8.9005882352941192</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="1">
+        <f>COUNTIF(L3:L27,"&gt;=6.00")</f>
+        <v>11</v>
+      </c>
+      <c r="Q3" s="10">
+        <f>P3/25</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2522,12 +5807,46 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H28" si="0">SUM(B4:E4)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I27" si="0">SUM(B4:H4)</f>
+        <v>17.5</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J27" si="1">(I4/$I$1)*10</f>
+        <v>5.1470588235294112</v>
+      </c>
+      <c r="K4" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4:L27" si="2">J4*0.4+K4*0.6</f>
+        <v>5.9888235294117642</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="1">
+        <f>COUNTIF(L3:L27,"&lt;6.00")</f>
+        <v>14</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>P4/25</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2543,12 +5862,35 @@
       <c r="E5" s="1">
         <v>7.7</v>
       </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>30.7</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>9.0294117647058822</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="2"/>
+        <v>9.6117647058823525</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2564,12 +5906,35 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="2"/>
+        <v>6.0049999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2585,12 +5950,33 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>5.5882352941176467</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2606,12 +5992,35 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.55</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="2"/>
+        <v>4.8711764705882352</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2627,12 +6036,33 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5294117647058827</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4117647058823533</v>
+      </c>
+      <c r="M9" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2648,12 +6078,35 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>5.4182352941176468</v>
+      </c>
+      <c r="M10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2669,12 +6122,35 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="1"/>
+        <v>3.382352941176471</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6.59</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>5.3069411764705885</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2690,12 +6166,35 @@
       <c r="E12" s="1">
         <v>8</v>
       </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
+        <v>9.117647058823529</v>
+      </c>
+      <c r="K12" s="7">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>8.9750588235294124</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2711,12 +6210,35 @@
       <c r="E13" s="1">
         <v>7.3000000000000007</v>
       </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>31.8</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="1"/>
+        <v>9.3529411764705888</v>
+      </c>
+      <c r="K13" s="7">
+        <v>7.55</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2711764705882356</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2732,12 +6254,35 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="K14" s="7">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>6.0711764705882354</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2753,12 +6298,35 @@
       <c r="E15" s="1">
         <v>6.7000000000000011</v>
       </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
-        <v>15.200000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>20.200000000000003</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="1"/>
+        <v>5.9411764705882364</v>
+      </c>
+      <c r="K15" s="7">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>7.5064705882352944</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2774,12 +6342,35 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7182352941176471</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2795,12 +6386,35 @@
       <c r="E17" s="1">
         <v>8</v>
       </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3</v>
+      </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="1"/>
+        <v>9.7058823529411757</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>9.882352941176471</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2816,12 +6430,35 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>4.117647058823529</v>
+      </c>
+      <c r="K18" s="7">
+        <v>6.6749999999999998</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>5.652058823529412</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2837,12 +6474,35 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
+      <c r="F19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9117647058823528</v>
+      </c>
+      <c r="K19" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>2.5947058823529412</v>
+      </c>
+      <c r="M19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2858,12 +6518,35 @@
       <c r="E20" s="1">
         <v>8</v>
       </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>8.235294117647058</v>
+      </c>
+      <c r="K20" s="7">
+        <v>5.05</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>6.3241176470588236</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2879,12 +6562,35 @@
       <c r="E21" s="1">
         <v>6.3000000000000007</v>
       </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>31.3</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
+        <v>9.2058823529411775</v>
+      </c>
+      <c r="K21" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8123529411764707</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2900,12 +6606,35 @@
       <c r="E22" s="1">
         <v>6.4999999999999991</v>
       </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>21.5</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3235294117647056</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>5.709411764705882</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2921,12 +6650,35 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="K23" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>4.7211764705882349</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2942,12 +6694,35 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
+      <c r="F24" s="1">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882355</v>
+      </c>
+      <c r="K24" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8564705882352941</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2963,20 +6738,43 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0588235294117645</v>
+      </c>
+      <c r="K25" s="7">
+        <v>5.55</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1535294117647057</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -2984,17 +6782,40 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8235294117647056</v>
+      </c>
+      <c r="K26" s="7">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4344117647058825</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
@@ -3003,35 +6824,49 @@
         <v>5</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>6.4999999999999991</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1">
-        <v>6.4999999999999991</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
+      <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
+        <v>7.2058823529411766</v>
+      </c>
+      <c r="K27" s="7">
+        <v>5.88</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>6.4103529411764715</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M27" xr:uid="{E3EAD3E5-5B7A-4705-8DDF-7E1216A30333}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ARELLANO COMPAN CAROLINA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="J3:L27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
+++ b/Bitacoras/NRC_163_Grupo_47/Parcial_03/Bitacora_Evaluacion_Continua_Parcial_03_NRC_163.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_163_Grupo_47\Parcial_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575AB8D8-097F-4FB1-A3FC-19D207F343C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A826E6-B76F-42A1-99AA-F8AA06CF1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" activeTab="5" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="1000" xr2:uid="{DFD1DC5D-988F-48FD-AF34-998B3D809771}"/>
   </bookViews>
   <sheets>
     <sheet name="Faltas" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
   <si>
     <t>Alumno</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +416,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -760,10 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03221FD9-1A43-4B19-A628-FA25B3241E5E}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="5745" ySplit="765" topLeftCell="V13" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +787,7 @@
     <col min="22" max="22" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -847,8 +854,14 @@
       <c r="V1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="12">
+        <v>45370</v>
+      </c>
+      <c r="X1" s="12">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -861,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -877,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -887,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -896,8 +909,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -916,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -938,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -974,8 +990,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1015,8 +1037,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -1026,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1039,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -1060,8 +1088,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1079,8 +1110,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1122,6 +1156,9 @@
       <c r="V16" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2822,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D964DE88-A12A-43EE-9275-0B22291B8A08}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,20 +2966,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3334,20 +3371,20 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3548,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BDBC46-5058-41B0-8978-5BEBA3687F77}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,11 +4039,11 @@
       </c>
       <c r="AC5" s="1">
         <f>COUNTIF(Z2:Z26,"&lt;6")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD5" s="9">
         <f>AC5/23</f>
-        <v>0.30434782608695654</v>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -4016,15 +4053,81 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
       <c r="X6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7"/>
+        <v>5.25</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8</v>
+      </c>
       <c r="AD6" s="1" t="s">
         <v>75</v>
       </c>
@@ -4119,6 +4222,66 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
       <c r="X8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4127,7 +4290,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="7"/>
+      <c r="Z8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -5632,14 +5797,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EAD3E5-5B7A-4705-8DDF-7E1216A30333}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5370" ySplit="1080" topLeftCell="I28" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5370" ySplit="1080" topLeftCell="J1" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,7 +5859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5791,7 +5955,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5846,7 +6010,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5869,28 +6033,28 @@
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>30.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="1"/>
-        <v>9.0294117647058822</v>
+        <v>9.6176470588235308</v>
       </c>
       <c r="K5" s="7">
         <v>10</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="2"/>
-        <v>9.6117647058823525</v>
+        <v>9.8470588235294123</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5934,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5967,16 +6131,18 @@
         <f t="shared" si="1"/>
         <v>5.5882352941176467</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>5.8</v>
+      </c>
       <c r="L7" s="7">
         <f t="shared" si="2"/>
-        <v>2.2352941176470589</v>
+        <v>5.7152941176470584</v>
       </c>
       <c r="M7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6020,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6062,7 +6228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6106,7 +6272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6150,7 +6316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6194,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6238,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6282,7 +6448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6326,7 +6492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6370,7 +6536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6414,7 +6580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6458,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6502,7 +6668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6525,28 +6691,28 @@
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="1"/>
-        <v>8.235294117647058</v>
+        <v>8.8235294117647065</v>
       </c>
       <c r="K20" s="7">
         <v>5.05</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="2"/>
-        <v>6.3241176470588236</v>
+        <v>6.5594117647058825</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6590,7 +6756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -6634,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -6678,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -6722,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -6766,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -6810,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -6855,13 +7021,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M27" xr:uid="{E3EAD3E5-5B7A-4705-8DDF-7E1216A30333}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ARELLANO COMPAN CAROLINA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="J3:L27">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>6</formula>
